--- a/biology/Biologie cellulaire et moléculaire/Tom_Rapoport/Tom_Rapoport.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Tom_Rapoport/Tom_Rapoport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom Abraham Rapoport (né à Cincinnati le 17 juin 1947) est un biologiste cellulaire germano-américain qui étudie le transfert des protéines dans les cellules. En 1995, il a accepté une chaire de professeur à la Harvard Medical School de Boston où il enseigne actuellement. En 1997, il est devenu chercheur au Howard Hughes Medical Institute.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom Abraham Rapoport est en 1947 né à Cincinnati, dans l’Ohio aux États-Unis. Ses parents, Samuel Mitja Rapoport et Ingeborg Rapoport, avaient fui le nazisme quelques années plus tôt. 
 En 1950, alors que Tom Rapoport a trois ans, ses parents quittent les États-Unis à la suite d'une enquête pour activités anti-américaines. Après un bref séjour à Vienne, ils s'installent en 1952 en RDA à Berlin, où son père devient professeur de biochimie et directeur de l'Institut de chimie physiologique à l'Université Humboldt, et sa mère professeur de néonatalogie à l'hôpital de la Charité. Son frère est le mathématicien Michael Rapoport. 
